--- a/Results/NEW_periods/Breeding/Male/meta_analysis_treatment_vs_control.xlsx
+++ b/Results/NEW_periods/Breeding/Male/meta_analysis_treatment_vs_control.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,13 +394,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.7311622968115296</v>
+        <v>0.731164928876849</v>
       </c>
       <c r="C3">
-        <v>2.395205859624136</v>
+        <v>2.395201816281667</v>
       </c>
       <c r="D3">
-        <v>5.903956711126737</v>
+        <v>5.903934177320373</v>
       </c>
     </row>
     <row r="4">
@@ -410,13 +410,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.3082657578203443</v>
+        <v>0.3082680437202807</v>
       </c>
       <c r="C4">
-        <v>2.969672227005449</v>
+        <v>2.969666661165475</v>
       </c>
       <c r="D4">
-        <v>8.574206407659645</v>
+        <v>8.574172475391292</v>
       </c>
     </row>
     <row r="5">
@@ -426,13 +426,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.5921041216999687</v>
+        <v>0.5921061238382785</v>
       </c>
       <c r="C5">
-        <v>1.837763831196798</v>
+        <v>1.837761509389397</v>
       </c>
       <c r="D5">
-        <v>3.122715423833175</v>
+        <v>3.122708225924273</v>
       </c>
     </row>
     <row r="6">
@@ -449,13 +449,13 @@
         </is>
       </c>
       <c r="B7">
-        <v>15.67984706760777</v>
+        <v>15.67984689656034</v>
       </c>
       <c r="C7">
-        <v>41.46713586817059</v>
+        <v>41.46713634734983</v>
       </c>
       <c r="D7">
-        <v>90.87829548421887</v>
+        <v>90.87829681474716</v>
       </c>
     </row>
     <row r="8">
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.3414679978507023</v>
+        <v>0.3414679978567267</v>
       </c>
       <c r="C8">
-        <v>2.24982913812294</v>
+        <v>2.24982902269246</v>
       </c>
       <c r="D8">
-        <v>5.919526914689413</v>
+        <v>5.919526529873998</v>
       </c>
     </row>
     <row r="9">
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.6148592831718048</v>
+        <v>0.6148592820564662</v>
       </c>
       <c r="C9">
-        <v>1.578248913121142</v>
+        <v>1.578248869757236</v>
       </c>
       <c r="D9">
-        <v>2.560025139514024</v>
+        <v>2.560025051636822</v>
       </c>
     </row>
     <row r="10">
@@ -504,13 +504,13 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.4701011808030217</v>
+        <v>0.4701008981129735</v>
       </c>
       <c r="C11">
-        <v>1.717211854457374</v>
+        <v>1.717212382891513</v>
       </c>
       <c r="D11">
-        <v>4.336770300575088</v>
+        <v>4.336772884958548</v>
       </c>
     </row>
     <row r="12">
@@ -520,13 +520,13 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.2163033611964296</v>
+        <v>0.216303147275205</v>
       </c>
       <c r="C12">
-        <v>2.68684508500066</v>
+        <v>2.686844709663296</v>
       </c>
       <c r="D12">
-        <v>8.188556290914972</v>
+        <v>8.18855655038591</v>
       </c>
     </row>
     <row r="13">
@@ -536,13 +536,68 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.5004009538290594</v>
+        <v>0.5004007210985406</v>
       </c>
       <c r="C13">
-        <v>1.763631342596161</v>
+        <v>1.763631271272005</v>
       </c>
       <c r="D13">
-        <v>3.078861579741896</v>
+        <v>3.078861719057596</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Speed meta analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>mean (km/day)</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>3.653954736902968</v>
+      </c>
+      <c r="C15">
+        <v>4.565123823551835</v>
+      </c>
+      <c r="D15">
+        <v>5.632669521343581</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CoV² (RVAR)</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>0.02927619797602131</v>
+      </c>
+      <c r="C16">
+        <v>0.1069301514646178</v>
+      </c>
+      <c r="D16">
+        <v>0.2339562486043259</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CoV  (RSTD)</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>0.1763395690530721</v>
+      </c>
+      <c r="C17">
+        <v>0.3370097987646193</v>
+      </c>
+      <c r="D17">
+        <v>0.4984938008943804</v>
       </c>
     </row>
   </sheetData>
@@ -552,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -594,13 +649,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>1.061253037824109</v>
+        <v>1.061264292682796</v>
       </c>
       <c r="C3">
-        <v>3.255505727842011</v>
+        <v>3.25548656999521</v>
       </c>
       <c r="D3">
-        <v>7.394166164762318</v>
+        <v>7.394079564918341</v>
       </c>
     </row>
     <row r="4">
@@ -610,13 +665,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.07571188572446158</v>
+        <v>0.07571293480294974</v>
       </c>
       <c r="C4">
-        <v>1.270876317015343</v>
+        <v>1.270882579976724</v>
       </c>
       <c r="D4">
-        <v>4.101777823938164</v>
+        <v>4.101791450929976</v>
       </c>
     </row>
     <row r="5">
@@ -626,13 +681,13 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.2991232498634879</v>
+        <v>0.29912523165536</v>
       </c>
       <c r="C5">
-        <v>1.225518248241944</v>
+        <v>1.225520896947137</v>
       </c>
       <c r="D5">
-        <v>2.201680041207931</v>
+        <v>2.201683031906777</v>
       </c>
     </row>
     <row r="6">
@@ -649,13 +704,13 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.3359549627421996</v>
+        <v>0.3359549729327069</v>
       </c>
       <c r="C7">
-        <v>0.6273037103755913</v>
+        <v>0.6273037523207455</v>
       </c>
       <c r="D7">
-        <v>1.075042670988692</v>
+        <v>1.075042756517226</v>
       </c>
     </row>
     <row r="8">
@@ -665,13 +720,13 @@
         </is>
       </c>
       <c r="B8">
-        <v>0.113561427460371</v>
+        <v>0.1135614307211665</v>
       </c>
       <c r="C8">
-        <v>0.6434687137807579</v>
+        <v>0.6434686353212727</v>
       </c>
       <c r="D8">
-        <v>1.623707732356638</v>
+        <v>1.623707463961387</v>
       </c>
     </row>
     <row r="9">
@@ -681,13 +736,13 @@
         </is>
       </c>
       <c r="B9">
-        <v>0.3526876073152295</v>
+        <v>0.352687610493711</v>
       </c>
       <c r="C9">
-        <v>0.8395344002151436</v>
+        <v>0.8395343445449107</v>
       </c>
       <c r="D9">
-        <v>1.333609583472835</v>
+        <v>1.333609466123622</v>
       </c>
     </row>
     <row r="10">
@@ -704,13 +759,13 @@
         </is>
       </c>
       <c r="B11">
-        <v>0.2864628989197183</v>
+        <v>0.2864639572642455</v>
       </c>
       <c r="C11">
-        <v>0.6470038097185478</v>
+        <v>0.6470016271740484</v>
       </c>
       <c r="D11">
-        <v>1.234722056115894</v>
+        <v>1.234713535288357</v>
       </c>
     </row>
     <row r="12">
@@ -720,13 +775,13 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.06738599202338805</v>
+        <v>0.06738658327542106</v>
       </c>
       <c r="C12">
-        <v>0.7459602917969003</v>
+        <v>0.745958742022889</v>
       </c>
       <c r="D12">
-        <v>2.219961084776247</v>
+        <v>2.219951378427903</v>
       </c>
     </row>
     <row r="13">
@@ -736,13 +791,68 @@
         </is>
       </c>
       <c r="B13">
-        <v>0.2781844328430707</v>
+        <v>0.2781855479991011</v>
       </c>
       <c r="C13">
-        <v>0.925562744638364</v>
+        <v>0.9255614329974937</v>
       </c>
       <c r="D13">
-        <v>1.596690314630977</v>
+        <v>1.596686219911642</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Speed meta analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>mean (km/day)</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>3.905356756047062</v>
+      </c>
+      <c r="C15">
+        <v>4.876102998580794</v>
+      </c>
+      <c r="D15">
+        <v>6.013107772340108</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CoV² (RVAR)</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>0.01320485772568828</v>
+      </c>
+      <c r="C16">
+        <v>0.07107566359616169</v>
+      </c>
+      <c r="D16">
+        <v>0.1766824793264817</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CoV  (RSTD)</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>0.1200468071097577</v>
+      </c>
+      <c r="C17">
+        <v>0.2785121924202664</v>
+      </c>
+      <c r="D17">
+        <v>0.4391172448707668</v>
       </c>
     </row>
   </sheetData>
